--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_trimester.xlsx
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02674566685880049</v>
+        <v>0.02577660307374713</v>
       </c>
       <c r="H2" t="n">
-        <v>5.306989864174851</v>
+        <v>1.49144879993047</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.393829165553473</v>
+        <v>-4.461660262628823</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02793579925937773</v>
+        <v>0.02768204593934403</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.011204656443093</v>
+        <v>-2.901280573500788</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03467921896362012</v>
+        <v>0.03800744577304545</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.983777196862943</v>
+        <v>3.039128237730551</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04429601730069462</v>
+        <v>0.03810446115602106</v>
       </c>
       <c r="H5" t="n">
-        <v>19.07042870027288</v>
+        <v>2.427143606185461</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01093389311827724</v>
+        <v>0.01281304030881588</v>
       </c>
       <c r="H6" t="n">
-        <v>66.68030445567935</v>
+        <v>95.32671817564132</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02019340418996743</v>
+        <v>0.01281304030881588</v>
       </c>
       <c r="H7" t="n">
-        <v>74.16919562405779</v>
+        <v>10.51316078711593</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04971565787957801</v>
+        <v>-0.04861661493057113</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.018806178696727</v>
+        <v>3.206941422065858</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04652525834368154</v>
+        <v>-0.04408784292826232</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.8326166100252932</v>
+        <v>6.027904451223026</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03875948276969886</v>
+        <v>-0.03142417877288262</v>
       </c>
       <c r="H10" t="n">
-        <v>-6.242716897835502</v>
+        <v>23.98645660551793</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0473942293239541</v>
+        <v>-0.03834012212352628</v>
       </c>
       <c r="H11" t="n">
-        <v>13.2651140860013</v>
+        <v>8.372846898523575</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05545290013979698</v>
+        <v>-0.05640847549223856</v>
       </c>
       <c r="H12" t="n">
-        <v>12.86208674432074</v>
+        <v>-14.80694856482266</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05325619948280189</v>
+        <v>-0.05765945093019628</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5485670552804575</v>
+        <v>-8.861977094285784</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06999098057839129</v>
+        <v>-0.06870962950736492</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.744506778356593</v>
+        <v>7.47007736176057</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07605811074334552</v>
+        <v>-0.07106271075773403</v>
       </c>
       <c r="H15" t="n">
-        <v>-15.44303980818152</v>
+        <v>20.996633417033</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2815935005992077</v>
+        <v>-0.2936737922038026</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.854656345594855</v>
+        <v>-0.2699551432985419</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.3048287594430495</v>
+        <v>-0.2930502249887897</v>
       </c>
       <c r="H17" t="n">
-        <v>2.429525578311662</v>
+        <v>1.52833488853524</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.146950116810612</v>
+        <v>-0.1408217035312042</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4381660605873584</v>
+        <v>3.750511049743589</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1559970270881929</v>
+        <v>-0.1523043247947725</v>
       </c>
       <c r="H19" t="n">
-        <v>2.929147931265887</v>
+        <v>-0.4926482894444245</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1631298048663477</v>
+        <v>0.167930328435461</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.35904707623208</v>
+        <v>-4.632843373971627</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1689732779522413</v>
+        <v>0.1764667363833703</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.974099233389441</v>
+        <v>-1.804332348455129</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1288852786342543</v>
+        <v>0.125875569214038</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.666782991139714</v>
+        <v>-3.963045315959519</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1362044922791479</v>
+        <v>0.1350425269695992</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.362927536972008</v>
+        <v>-1.212934903173642</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08838785740838055</v>
+        <v>0.08891473419627836</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2294896311772674</v>
+        <v>0.8269539560054948</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09093511080017525</v>
+        <v>0.08786427225939267</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.037929236028175</v>
+        <v>-5.346065112146722</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0577820772139724</v>
+        <v>0.06193118058580172</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.836912790692491</v>
+        <v>-2.290850572717333</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06440392494443753</v>
+        <v>0.07073269655228752</v>
       </c>
       <c r="H27" t="n">
-        <v>12.69020114417858</v>
+        <v>23.76391359414905</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1094069217301836</v>
+        <v>-0.1035055715677004</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.4356012415501891</v>
+        <v>5.806051040327588</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1074884213834019</v>
+        <v>-0.1080096094202563</v>
       </c>
       <c r="H29" t="n">
-        <v>-4.455220705769866</v>
+        <v>3.991944798363747</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1185162780530205</v>
+        <v>0.1170966025499602</v>
       </c>
       <c r="H30" t="n">
-        <v>3.866990338878187</v>
+        <v>2.622794822590221</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1184911022804</v>
+        <v>0.1240744983527884</v>
       </c>
       <c r="H31" t="n">
-        <v>1.005766732280535</v>
+        <v>5.76523972567913</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09796900602474989</v>
+        <v>0.09765236318379594</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3503577507975811</v>
+        <v>0.02601821058697067</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1015591262163455</v>
+        <v>0.09968692042088786</v>
       </c>
       <c r="H33" t="n">
-        <v>4.550916935059029</v>
+        <v>2.623558558725112</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06472370699176069</v>
+        <v>0.05596971804548373</v>
       </c>
       <c r="H34" t="n">
-        <v>12.21618860343255</v>
+        <v>-2.961237416879161</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.05770452427006201</v>
+        <v>0.06317723359448348</v>
       </c>
       <c r="H35" t="n">
-        <v>2.413471654799359</v>
+        <v>12.1263870346837</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01650742746295231</v>
+        <v>0.01760221422062221</v>
       </c>
       <c r="H36" t="n">
-        <v>-14.9113713906474</v>
+        <v>-9.268220509695354</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02021171792205946</v>
+        <v>0.02226764887732904</v>
       </c>
       <c r="H37" t="n">
-        <v>19.59000177597367</v>
+        <v>31.75466722104315</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2030447087592024</v>
+        <v>-0.2008485650184977</v>
       </c>
       <c r="H38" t="n">
-        <v>3.735544700319807</v>
+        <v>-2.613534830797043</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1995147693856469</v>
+        <v>-0.2023179672546802</v>
       </c>
       <c r="H39" t="n">
-        <v>-1.805566575627922</v>
+        <v>0.4259272267530613</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1559478530765879</v>
+        <v>0.1529544115520554</v>
       </c>
       <c r="H40" t="n">
-        <v>5.400505570077295</v>
+        <v>3.377327668902624</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1606587230648662</v>
+        <v>0.1611199060174816</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6575450479491161</v>
+        <v>0.9464901045427054</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1095592965804725</v>
+        <v>0.1054614928357834</v>
       </c>
       <c r="H42" t="n">
-        <v>1.548869647398762</v>
+        <v>-2.24932321526174</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.112380846553</v>
+        <v>0.1121867618125656</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4010808329782547</v>
+        <v>0.2276854697068775</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04507636111443085</v>
+        <v>-0.0413707405073144</v>
       </c>
       <c r="H44" t="n">
-        <v>9.3723290985044</v>
+        <v>-0.3810896431529661</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04601168533356084</v>
+        <v>-0.04839306142903284</v>
       </c>
       <c r="H45" t="n">
-        <v>10.52574093147357</v>
+        <v>-16.24609991159904</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0468254243095159</v>
+        <v>0.04404746063099112</v>
       </c>
       <c r="H46" t="n">
-        <v>8.829690374165869</v>
+        <v>2.373263519255499</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0503701625113097</v>
+        <v>0.04803272265867266</v>
       </c>
       <c r="H47" t="n">
-        <v>1.944648494136314</v>
+        <v>-2.786118139776479</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01612929825758161</v>
+        <v>0.01347037874211079</v>
       </c>
       <c r="H48" t="n">
-        <v>30.04038131767086</v>
+        <v>8.603186582785622</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01270574935825613</v>
+        <v>0.007720495117589656</v>
       </c>
       <c r="H49" t="n">
-        <v>-32.81929626768893</v>
+        <v>-59.1784568908943</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0843113632347848</v>
+        <v>0.08629158462211219</v>
       </c>
       <c r="H50" t="n">
-        <v>1.200609755609003</v>
+        <v>3.577508955905046</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08703021001631249</v>
+        <v>0.08552266669798936</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.6465731635779908</v>
+        <v>-2.367580096132563</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03817983484020893</v>
+        <v>0.03662811237680706</v>
       </c>
       <c r="H52" t="n">
-        <v>6.280169469980536</v>
+        <v>1.960681785684833</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04137751270913265</v>
+        <v>0.03877919118489221</v>
       </c>
       <c r="H53" t="n">
-        <v>34.00405417635137</v>
+        <v>25.5892028354914</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05956391159422746</v>
+        <v>0.06066324956244559</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.2738098408748683</v>
+        <v>1.566780951995295</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07133940388791876</v>
+        <v>0.06619553600291871</v>
       </c>
       <c r="H55" t="n">
-        <v>10.1474743746612</v>
+        <v>2.205383115532576</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07330173698526223</v>
+        <v>0.0760790004878393</v>
       </c>
       <c r="H56" t="n">
-        <v>-3.679207562935366</v>
+        <v>-0.02979579758325438</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0775288713571799</v>
+        <v>0.0771940066833952</v>
       </c>
       <c r="H57" t="n">
-        <v>1.481357079585315</v>
+        <v>1.043036220029337</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04677607420983547</v>
+        <v>0.04589331475572291</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.486698682087201</v>
+        <v>-2.364716643882462</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04729100963416016</v>
+        <v>0.04916743086950287</v>
       </c>
       <c r="H59" t="n">
-        <v>6.930252209356616</v>
+        <v>11.17305010050704</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04312789614079594</v>
+        <v>0.0444416538015462</v>
       </c>
       <c r="H60" t="n">
-        <v>5.902498288242098</v>
+        <v>9.128489604038323</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04210304161375401</v>
+        <v>0.04425621117013855</v>
       </c>
       <c r="H61" t="n">
-        <v>3.532536528389957</v>
+        <v>8.827239647306117</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.02595172480444246</v>
+        <v>-0.03140897900732596</v>
       </c>
       <c r="H62" t="n">
-        <v>-3.280722101506909</v>
+        <v>-17.05787542096125</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.03238700823904092</v>
+        <v>-0.02920853374480982</v>
       </c>
       <c r="H63" t="n">
-        <v>2.587579110566888</v>
+        <v>7.480408683217307</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08955749904316929</v>
+        <v>0.08301701496171771</v>
       </c>
       <c r="H64" t="n">
-        <v>2.570916249448927</v>
+        <v>-4.919952210667947</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08198281693022272</v>
+        <v>0.08068207078896662</v>
       </c>
       <c r="H65" t="n">
-        <v>-4.93670914713083</v>
+        <v>-6.444991167462227</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01842484419118033</v>
+        <v>0.01342904749446414</v>
       </c>
       <c r="H66" t="n">
-        <v>-13.87817951779985</v>
+        <v>-37.22964462739967</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0228139431858975</v>
+        <v>0.0176036279154386</v>
       </c>
       <c r="H67" t="n">
-        <v>8.708215898655748</v>
+        <v>-16.11888534841114</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.002472136664990518</v>
+        <v>-0.001433529099164058</v>
       </c>
       <c r="H68" t="n">
-        <v>-1277.734692761368</v>
+        <v>-782.9383573642109</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0003040440221667235</v>
+        <v>0.003077719364782025</v>
       </c>
       <c r="H69" t="n">
-        <v>-112.6484993128122</v>
+        <v>28.03583834030307</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.06993659927133686</v>
+        <v>-0.06924170707332719</v>
       </c>
       <c r="H70" t="n">
-        <v>2.833256501595772</v>
+        <v>-1.8115021071385</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07080056928457976</v>
+        <v>-0.06489330592784098</v>
       </c>
       <c r="H71" t="n">
-        <v>-5.515977745419584</v>
+        <v>13.39927597453899</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04534817792450492</v>
+        <v>0.04695180632465844</v>
       </c>
       <c r="H72" t="n">
-        <v>-3.62749476534908</v>
+        <v>-0.219514699523382</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04271509452096933</v>
+        <v>0.04937682636560538</v>
       </c>
       <c r="H73" t="n">
-        <v>-16.82768148001572</v>
+        <v>-3.856349235748032</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04385426627332328</v>
+        <v>0.05624259405554056</v>
       </c>
       <c r="H74" t="n">
-        <v>1.583176299971719</v>
+        <v>30.27925976239948</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04894986674914818</v>
+        <v>0.04991027808341459</v>
       </c>
       <c r="H75" t="n">
-        <v>7.690303470803846</v>
+        <v>9.803220112109083</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0335465348527098</v>
+        <v>0.03184057630127624</v>
       </c>
       <c r="H76" t="n">
-        <v>8.264899411145821</v>
+        <v>2.759250861110284</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03338196637849548</v>
+        <v>0.03383515417899214</v>
       </c>
       <c r="H77" t="n">
-        <v>13.61070338266579</v>
+        <v>15.15306263721338</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03240420860626479</v>
+        <v>0.0295165879401125</v>
       </c>
       <c r="H78" t="n">
-        <v>-5.992229238761201</v>
+        <v>-14.36949852891688</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04070792111587859</v>
+        <v>0.02953302138549209</v>
       </c>
       <c r="H79" t="n">
-        <v>26.79863820170393</v>
+        <v>-8.009380213682421</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03625874083070513</v>
+        <v>0.03780154556870272</v>
       </c>
       <c r="H80" t="n">
-        <v>23.05092733989555</v>
+        <v>28.28672840097991</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03704019827142216</v>
+        <v>0.04207906978617842</v>
       </c>
       <c r="H81" t="n">
-        <v>6.326653119313355</v>
+        <v>20.79110980867295</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05608058770562865</v>
+        <v>0.05353883037496045</v>
       </c>
       <c r="H82" t="n">
-        <v>14.09858582336531</v>
+        <v>8.927261327664528</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05267251545136985</v>
+        <v>0.05069838308881291</v>
       </c>
       <c r="H83" t="n">
-        <v>2.106749075924041</v>
+        <v>-1.72014690690338</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03388661124006172</v>
+        <v>0.03257455142907141</v>
       </c>
       <c r="H84" t="n">
-        <v>-7.786721521114194</v>
+        <v>-11.35713863584671</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03666422233512422</v>
+        <v>0.0358336103425855</v>
       </c>
       <c r="H85" t="n">
-        <v>12.49183360903003</v>
+        <v>9.943380100203827</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02554001399092236</v>
+        <v>0.02935101635066806</v>
       </c>
       <c r="H86" t="n">
-        <v>-4.856745016240441</v>
+        <v>9.340238955102327</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02934227469898162</v>
+        <v>0.02864132385287799</v>
       </c>
       <c r="H87" t="n">
-        <v>-12.73799686299211</v>
+        <v>-14.82257876944213</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05274352124396332</v>
+        <v>0.05198618314253859</v>
       </c>
       <c r="H88" t="n">
-        <v>-5.267800683873764</v>
+        <v>-6.628049341562233</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05358289279704307</v>
+        <v>0.05110059173718584</v>
       </c>
       <c r="H89" t="n">
-        <v>-0.3868900847601022</v>
+        <v>-5.001604136404587</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.0159156436986248</v>
+        <v>-0.02301974730830973</v>
       </c>
       <c r="H90" t="n">
-        <v>-33.51558370085505</v>
+        <v>3.83961263979383</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01774942375230308</v>
+        <v>-0.02271945407061397</v>
       </c>
       <c r="H91" t="n">
-        <v>-14.33364460692156</v>
+        <v>-9.653859973758143</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04223888988717811</v>
+        <v>0.04262916029698049</v>
       </c>
       <c r="H92" t="n">
-        <v>6.563513111669813</v>
+        <v>7.548117253567418</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03645042451102534</v>
+        <v>0.04685202046451242</v>
       </c>
       <c r="H93" t="n">
-        <v>-24.53393531711803</v>
+        <v>-2.998726233513904</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04428438376185133</v>
+        <v>0.0473045707699157</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.4920386842284044</v>
+        <v>6.294386381118408</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05191126527705614</v>
+        <v>0.05413196664887773</v>
       </c>
       <c r="H95" t="n">
-        <v>15.9472090288115</v>
+        <v>20.90729090651079</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1464325928606697</v>
+        <v>-0.1460857595323343</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.3610443051391614</v>
+        <v>0.5970444329822471</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1543290933314196</v>
+        <v>-0.1518549531163734</v>
       </c>
       <c r="H97" t="n">
-        <v>2.32833927121835</v>
+        <v>-0.6878536449202511</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1435211113405995</v>
+        <v>0.1425338896749027</v>
       </c>
       <c r="H98" t="n">
-        <v>0.8509452565054051</v>
+        <v>0.1572338071357883</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1506001170848587</v>
+        <v>0.145384528380976</v>
       </c>
       <c r="H99" t="n">
-        <v>2.406638569957094</v>
+        <v>-1.139911842265431</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03056627616200037</v>
+        <v>0.02791835888623604</v>
       </c>
       <c r="H100" t="n">
-        <v>31.45762232551367</v>
+        <v>20.06961721354748</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03010425272363162</v>
+        <v>0.02922564078806671</v>
       </c>
       <c r="H101" t="n">
-        <v>10.20464432689966</v>
+        <v>6.988251056845447</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.009870243771426288</v>
+        <v>-0.01228300209367856</v>
       </c>
       <c r="H102" t="n">
-        <v>27.50367723417623</v>
+        <v>-58.67165702157631</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.01552986429536208</v>
+        <v>-0.008472062984396541</v>
       </c>
       <c r="H103" t="n">
-        <v>102.7229001098436</v>
+        <v>-10.59215621240432</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07216058337452033</v>
+        <v>0.0798031919012559</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.8627438616238672</v>
+        <v>9.636994411665247</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.07661809647670091</v>
+        <v>0.08020498424796643</v>
       </c>
       <c r="H105" t="n">
-        <v>2.445920436205997</v>
+        <v>7.241941691320456</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.3334316193991406</v>
+        <v>-0.351427367694786</v>
       </c>
       <c r="H106" t="n">
-        <v>-3.80127335424199</v>
+        <v>-1.390699963100561</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.3448810405870871</v>
+        <v>-0.359107043086945</v>
       </c>
       <c r="H107" t="n">
-        <v>-8.338040991532703</v>
+        <v>4.557075659902479</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2150459313736647</v>
+        <v>0.2232413475884253</v>
       </c>
       <c r="H108" t="n">
-        <v>-4.389943272683023</v>
+        <v>-0.7462369993673553</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2310342494697165</v>
+        <v>0.2335436111576406</v>
       </c>
       <c r="H109" t="n">
-        <v>3.767882682317837</v>
+        <v>4.894949988735286</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0567275725754235</v>
+        <v>0.06110552034677862</v>
       </c>
       <c r="H110" t="n">
-        <v>-3.240849350147963</v>
+        <v>4.226533594583516</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06542821204523823</v>
+        <v>0.06823464446303559</v>
       </c>
       <c r="H111" t="n">
-        <v>13.90277998548617</v>
+        <v>18.78844695140433</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1315461490284027</v>
+        <v>0.1334265803925066</v>
       </c>
       <c r="H112" t="n">
-        <v>2.524612027374397</v>
+        <v>3.99018511691602</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,10 +4166,10 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1364665744474611</v>
+        <v>0.1352609803166214</v>
       </c>
       <c r="H113" t="n">
-        <v>4.223619485411327</v>
+        <v>3.302871057049057</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_trimester.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 125/S&P500_returns_compared_trimester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.02539780777448591</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02577660307374713</v>
+        <v>0.03252880712422373</v>
       </c>
       <c r="H2" t="n">
-        <v>1.49144879993047</v>
+        <v>28.0772238811157</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.461660262628823</v>
+        <v>-8.386610631878732</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.02850917715789084</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02768204593934403</v>
+        <v>0.0201149112619916</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.901280573500788</v>
+        <v>-29.44408338904251</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.03688642016201375</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03800744577304545</v>
+        <v>0.03816901418341446</v>
       </c>
       <c r="H4" t="n">
-        <v>3.039128237730551</v>
+        <v>3.477144205827656</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.03720152667980871</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03810446115602106</v>
+        <v>0.03843307219090998</v>
       </c>
       <c r="H5" t="n">
-        <v>2.427143606185461</v>
+        <v>3.31047035166355</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.006559799104029466</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01281304030881588</v>
+        <v>0.009386063166304304</v>
       </c>
       <c r="H6" t="n">
-        <v>95.32671817564132</v>
+        <v>43.08461307204907</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.0115941307058423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01281304030881588</v>
+        <v>0.01245753204840129</v>
       </c>
       <c r="H7" t="n">
-        <v>10.51316078711593</v>
+        <v>7.446882948489793</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.05022737750499624</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04861661493057113</v>
+        <v>-0.04087012869123269</v>
       </c>
       <c r="H8" t="n">
-        <v>3.206941422065858</v>
+        <v>18.62977777972335</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.04691588781839836</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04408784292826232</v>
+        <v>-0.04515458605086002</v>
       </c>
       <c r="H9" t="n">
-        <v>6.027904451223026</v>
+        <v>3.754169108673742</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.04134023671255897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03142417877288262</v>
+        <v>-0.03521296376897038</v>
       </c>
       <c r="H10" t="n">
-        <v>23.98645660551793</v>
+        <v>14.82157198613029</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.04184362476160845</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03834012212352628</v>
+        <v>-0.04433855825396394</v>
       </c>
       <c r="H11" t="n">
-        <v>8.372846898523575</v>
+        <v>-5.962517603505015</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.04913332877268228</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05640847549223856</v>
+        <v>-0.06649965162482376</v>
       </c>
       <c r="H12" t="n">
-        <v>-14.80694856482266</v>
+        <v>-35.3453008089226</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.05296564739060104</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05765945093019628</v>
+        <v>-0.04899289660275809</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.861977094285784</v>
+        <v>7.500617822237617</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.0742566594116762</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06870962950736492</v>
+        <v>-0.07068677459227767</v>
       </c>
       <c r="H14" t="n">
-        <v>7.47007736176057</v>
+        <v>4.807494503095298</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.08994896525467186</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07106271075773403</v>
+        <v>-0.07867762319969047</v>
       </c>
       <c r="H15" t="n">
-        <v>20.996633417033</v>
+        <v>12.53081902951181</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>-0.2928831391059319</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2936737922038026</v>
+        <v>-0.2842936162412545</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2699551432985419</v>
+        <v>2.932747474265047</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>-0.2975985271063226</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2930502249887897</v>
+        <v>-0.3036773018348222</v>
       </c>
       <c r="H17" t="n">
-        <v>1.52833488853524</v>
+        <v>-2.04260914447599</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>-0.1463090402526538</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1408217035312042</v>
+        <v>-0.1243010990120186</v>
       </c>
       <c r="H18" t="n">
-        <v>3.750511049743589</v>
+        <v>15.04209254782259</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>-0.1515576784841984</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1523043247947725</v>
+        <v>-0.1551158801078911</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.4926482894444245</v>
+        <v>-2.347754108719522</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.1760882198616668</v>
       </c>
       <c r="G20" t="n">
-        <v>0.167930328435461</v>
+        <v>0.1738028301826658</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.632843373971627</v>
+        <v>-1.297866308601678</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.1797092892219813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1764667363833703</v>
+        <v>0.1773817055407806</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.804332348455129</v>
+        <v>-1.295193860750077</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.1310699299328742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.125875569214038</v>
+        <v>0.1231703618702365</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.963045315959519</v>
+        <v>-6.026987324005865</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.1367006164594899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1350425269695992</v>
+        <v>0.1448430763942213</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.212934903173642</v>
+        <v>5.956417860883878</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.08818548087357189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08891473419627836</v>
+        <v>0.08595838174167397</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8269539560054948</v>
+        <v>-2.525471437969279</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.09282685644658613</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08786427225939267</v>
+        <v>0.08846737641134951</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.346065112146722</v>
+        <v>-4.696356423256802</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0633831948684522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06193118058580172</v>
+        <v>0.05724505754837926</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.290850572717333</v>
+        <v>-9.684171542334299</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.0571513088897921</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07073269655228752</v>
+        <v>0.06485398102231123</v>
       </c>
       <c r="H27" t="n">
-        <v>23.76391359414905</v>
+        <v>13.47768280753219</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1098855847014277</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1035055715677004</v>
+        <v>-0.103379048123434</v>
       </c>
       <c r="H28" t="n">
-        <v>5.806051040327588</v>
+        <v>5.92119211602936</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.1125005700755154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1080096094202563</v>
+        <v>-0.1045241675240043</v>
       </c>
       <c r="H29" t="n">
-        <v>3.991944798363747</v>
+        <v>7.090099673412302</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.1141038915889902</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1170966025499602</v>
+        <v>0.1127175126726749</v>
       </c>
       <c r="H30" t="n">
-        <v>2.622794822590221</v>
+        <v>-1.215014577512516</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.1173112250060583</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1240744983527884</v>
+        <v>0.1237498442665937</v>
       </c>
       <c r="H31" t="n">
-        <v>5.76523972567913</v>
+        <v>5.488493756844578</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09762696239513032</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09765236318379594</v>
+        <v>0.09535927694416929</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02601821058697067</v>
+        <v>-2.322806523246018</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.09713843665228507</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09968692042088786</v>
+        <v>0.1018579874408047</v>
       </c>
       <c r="H33" t="n">
-        <v>2.623558558725112</v>
+        <v>4.858582195854813</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.0576776914251576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.05596971804548373</v>
+        <v>0.05807229329926299</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.961237416879161</v>
+        <v>0.684149910225564</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.05634466182785419</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06317723359448348</v>
+        <v>0.06237930774282242</v>
       </c>
       <c r="H35" t="n">
-        <v>12.1263870346837</v>
+        <v>10.71023539622164</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01940027443471792</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01760221422062221</v>
+        <v>0.01822284859621056</v>
       </c>
       <c r="H36" t="n">
-        <v>-9.268220509695354</v>
+        <v>-6.069119498641153</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01690084256368003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02226764887732904</v>
+        <v>0.02050343491361116</v>
       </c>
       <c r="H37" t="n">
-        <v>31.75466722104315</v>
+        <v>21.31605176698773</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.1957330145089376</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2008485650184977</v>
+        <v>-0.1910427086834285</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.613534830797043</v>
+        <v>2.396277315442314</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.2031833805928625</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2023179672546802</v>
+        <v>-0.2007555852310103</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4259272267530613</v>
+        <v>1.194878909273095</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.1479574051690894</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1529544115520554</v>
+        <v>0.1513169656126998</v>
       </c>
       <c r="H40" t="n">
-        <v>3.377327668902624</v>
+        <v>2.270626765703968</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1596092205391409</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1611199060174816</v>
+        <v>0.1588840153288688</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9464901045427054</v>
+        <v>-0.4543629796714923</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1078882482502147</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1054614928357834</v>
+        <v>0.1124447416351004</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.24932321526174</v>
+        <v>4.223345414153236</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1119319091195349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1121867618125656</v>
+        <v>0.1170642553574104</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2276854697068775</v>
+        <v>4.585239614196637</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>-0.04121367944339337</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0413707405073144</v>
+        <v>-0.04780732573339019</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.3810896431529661</v>
+        <v>-15.99868388129028</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>-0.04162983658448242</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.04839306142903284</v>
+        <v>-0.04663624204230109</v>
       </c>
       <c r="H45" t="n">
-        <v>-16.24609991159904</v>
+        <v>-12.02600314718702</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.0430263323809211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04404746063099112</v>
+        <v>0.04772397110271782</v>
       </c>
       <c r="H46" t="n">
-        <v>2.373263519255499</v>
+        <v>10.91805520444443</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.04940932482023017</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04803272265867266</v>
+        <v>0.04893207614377243</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.786118139776479</v>
+        <v>-0.9659081118678606</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01240329972439864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01347037874211079</v>
+        <v>0.01603785200481448</v>
       </c>
       <c r="H48" t="n">
-        <v>8.603186582785622</v>
+        <v>29.30310773081039</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.01891279586603259</v>
       </c>
       <c r="G49" t="n">
-        <v>0.007720495117589656</v>
+        <v>0.02069184593936917</v>
       </c>
       <c r="H49" t="n">
-        <v>-59.1784568908943</v>
+        <v>9.406594804588133</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.08331112177919647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08629158462211219</v>
+        <v>0.08114803606746844</v>
       </c>
       <c r="H50" t="n">
-        <v>3.577508955905046</v>
+        <v>-2.596394893662534</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.08759658603381766</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08552266669798936</v>
+        <v>0.08581796901578656</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.367580096132563</v>
+        <v>-2.030463855457158</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.0359237617239527</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03662811237680706</v>
+        <v>0.027384407124539</v>
       </c>
       <c r="H52" t="n">
-        <v>1.960681785684833</v>
+        <v>-23.77076951192436</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.03087780661820814</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03877919118489221</v>
+        <v>0.04115912334437297</v>
       </c>
       <c r="H53" t="n">
-        <v>25.5892028354914</v>
+        <v>33.2967844940842</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05972745123340827</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06066324956244559</v>
+        <v>0.05688140829554322</v>
       </c>
       <c r="H54" t="n">
-        <v>1.566780951995295</v>
+        <v>-4.765050038286463</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06476717173310874</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06619553600291871</v>
+        <v>0.07111183408248781</v>
       </c>
       <c r="H55" t="n">
-        <v>2.205383115532576</v>
+        <v>9.796108398131118</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.07610167558905528</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0760790004878393</v>
+        <v>0.07961634275832789</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.02979579758325438</v>
+        <v>4.618383422004545</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.07639715666827256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0771940066833952</v>
+        <v>0.07358088136898737</v>
       </c>
       <c r="H57" t="n">
-        <v>1.043036220029337</v>
+        <v>-3.686361406765254</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.04700484617669456</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04589331475572291</v>
+        <v>0.04248186463646032</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.364716643882462</v>
+        <v>-9.622372814990236</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.04422603393992752</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04916743086950287</v>
+        <v>0.04542030510189528</v>
       </c>
       <c r="H59" t="n">
-        <v>11.17305010050704</v>
+        <v>2.700380422060773</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.04072415366766116</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0444416538015462</v>
+        <v>0.04113682845405119</v>
       </c>
       <c r="H60" t="n">
-        <v>9.128489604038323</v>
+        <v>1.013341590245825</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.04066648323854097</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04425621117013855</v>
+        <v>0.04261573017819176</v>
       </c>
       <c r="H61" t="n">
-        <v>8.827239647306117</v>
+        <v>4.793251799564079</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>-0.02683200843546289</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.03140897900732596</v>
+        <v>-0.02938129588064527</v>
       </c>
       <c r="H62" t="n">
-        <v>-17.05787542096125</v>
+        <v>-9.500919214877261</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>-0.03157010675155404</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.02920853374480982</v>
+        <v>-0.03092439797442252</v>
       </c>
       <c r="H63" t="n">
-        <v>7.480408683217307</v>
+        <v>2.045317053290406</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.08731276108070297</v>
       </c>
       <c r="G64" t="n">
-        <v>0.08301701496171771</v>
+        <v>0.0835881380233867</v>
       </c>
       <c r="H64" t="n">
-        <v>-4.919952210667947</v>
+        <v>-4.265840423799693</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.0862402470971773</v>
       </c>
       <c r="G65" t="n">
-        <v>0.08068207078896662</v>
+        <v>0.0810297270229499</v>
       </c>
       <c r="H65" t="n">
-        <v>-6.444991167462227</v>
+        <v>-6.041865891636507</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.02139393255741548</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01342904749446414</v>
+        <v>0.01780875979621048</v>
       </c>
       <c r="H66" t="n">
-        <v>-37.22964462739967</v>
+        <v>-16.75789503207685</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.0209864019911485</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0176036279154386</v>
+        <v>0.02011072299672497</v>
       </c>
       <c r="H67" t="n">
-        <v>-16.11888534841114</v>
+        <v>-4.172601834239453</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>0.0002099060747878827</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.001433529099164058</v>
+        <v>-0.001760356209204394</v>
       </c>
       <c r="H68" t="n">
-        <v>-782.9383573642109</v>
+        <v>-938.6399540762669</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>0.002403795222242257</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003077719364782025</v>
+        <v>-0.001870675433668394</v>
       </c>
       <c r="H69" t="n">
-        <v>28.03583834030307</v>
+        <v>-177.8217468925423</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>-0.06800970974818013</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.06924170707332719</v>
+        <v>-0.07779552117349696</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.8115021071385</v>
+        <v>-14.38884456579921</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>-0.07493390691371363</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06489330592784098</v>
+        <v>-0.06705979717390237</v>
       </c>
       <c r="H71" t="n">
-        <v>13.39927597453899</v>
+        <v>10.508073132872</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>0.04705509918424316</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04695180632465844</v>
+        <v>0.04627523586249788</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.219514699523382</v>
+        <v>-1.657340724523276</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>0.05135734494488805</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04937682636560538</v>
+        <v>0.04844658652960529</v>
       </c>
       <c r="H73" t="n">
-        <v>-3.856349235748032</v>
+        <v>-5.667657505282478</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.04317079645533341</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05624259405554056</v>
+        <v>0.05050276058521977</v>
       </c>
       <c r="H74" t="n">
-        <v>30.27925976239948</v>
+        <v>16.98362025234435</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.04545429362859869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.04991027808341459</v>
+        <v>0.0456433473912984</v>
       </c>
       <c r="H75" t="n">
-        <v>9.803220112109083</v>
+        <v>0.4159205822104398</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.03098560570893229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03184057630127624</v>
+        <v>0.02735802515197254</v>
       </c>
       <c r="H76" t="n">
-        <v>2.759250861110284</v>
+        <v>-11.70730884216351</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.02938276534215063</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03383515417899214</v>
+        <v>0.03710415892337614</v>
       </c>
       <c r="H77" t="n">
-        <v>15.15306263721338</v>
+        <v>26.27864835495552</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.03446971281615122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0295165879401125</v>
+        <v>0.03594840532129384</v>
       </c>
       <c r="H78" t="n">
-        <v>-14.36949852891688</v>
+        <v>4.289831229605599</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.03210438352746564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02953302138549209</v>
+        <v>0.03839501533981267</v>
       </c>
       <c r="H79" t="n">
-        <v>-8.009380213682421</v>
+        <v>19.59430807000335</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>0.02946645069203743</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03780154556870272</v>
+        <v>0.02587306046454665</v>
       </c>
       <c r="H80" t="n">
-        <v>28.28672840097991</v>
+        <v>-12.19485259709885</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>0.03483623078952545</v>
       </c>
       <c r="G81" t="n">
-        <v>0.04207906978617842</v>
+        <v>0.03663135907214703</v>
       </c>
       <c r="H81" t="n">
-        <v>20.79110980867295</v>
+        <v>5.153049689753857</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.04915099280235283</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05353883037496045</v>
+        <v>0.05264875658463177</v>
       </c>
       <c r="H82" t="n">
-        <v>8.927261327664528</v>
+        <v>7.116364457467293</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.05158573348780684</v>
       </c>
       <c r="G83" t="n">
-        <v>0.05069838308881291</v>
+        <v>0.05662553464910645</v>
       </c>
       <c r="H83" t="n">
-        <v>-1.72014690690338</v>
+        <v>9.769757684052029</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.03674808205395363</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03257455142907141</v>
+        <v>0.03759322061586633</v>
       </c>
       <c r="H84" t="n">
-        <v>-11.35713863584671</v>
+        <v>2.299816792266504</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0325927857683894</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0358336103425855</v>
+        <v>0.03594977666816652</v>
       </c>
       <c r="H85" t="n">
-        <v>9.943380100203827</v>
+        <v>10.29979739575666</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3275,10 +3275,10 @@
         <v>0.02684374630159742</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02935101635066806</v>
+        <v>0.0254898325024263</v>
       </c>
       <c r="H86" t="n">
-        <v>9.340238955102327</v>
+        <v>-5.04368423080556</v>
       </c>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3308,10 +3308,10 @@
         <v>0.03362548835019527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02864132385287799</v>
+        <v>0.02676673584118594</v>
       </c>
       <c r="H87" t="n">
-        <v>-14.82257876944213</v>
+        <v>-20.39748073716675</v>
       </c>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3341,10 +3341,10 @@
         <v>0.0556764454163631</v>
       </c>
       <c r="G88" t="n">
-        <v>0.05198618314253859</v>
+        <v>0.05535405415913709</v>
       </c>
       <c r="H88" t="n">
-        <v>-6.628049341562233</v>
+        <v>-0.579044252583086</v>
       </c>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3374,10 +3374,10 @@
         <v>0.05379100486134444</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05110059173718584</v>
+        <v>0.05450783957427829</v>
       </c>
       <c r="H89" t="n">
-        <v>-5.001604136404587</v>
+        <v>1.332629339759715</v>
       </c>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3407,10 +3407,10 @@
         <v>-0.02393890867148892</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02301974730830973</v>
+        <v>-0.02091185835464649</v>
       </c>
       <c r="H90" t="n">
-        <v>3.83961263979383</v>
+        <v>12.64489688474239</v>
       </c>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3440,10 +3440,10 @@
         <v>-0.02071924697958748</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02271945407061397</v>
+        <v>-0.02376521231678721</v>
       </c>
       <c r="H91" t="n">
-        <v>-9.653859973758143</v>
+        <v>-14.70113918812108</v>
       </c>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3473,10 +3473,10 @@
         <v>0.03963729108941371</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04262916029698049</v>
+        <v>0.04271839854873483</v>
       </c>
       <c r="H92" t="n">
-        <v>7.548117253567418</v>
+        <v>7.773254363853391</v>
       </c>
       <c r="I92" t="inlineStr"/>
     </row>
@@ -3506,10 +3506,10 @@
         <v>0.04830041776286424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04685202046451242</v>
+        <v>0.04153297783583428</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.998726233513904</v>
+        <v>-14.01114160182918</v>
       </c>
       <c r="I93" t="inlineStr"/>
     </row>
@@ -3539,10 +3539,10 @@
         <v>0.04450335749651464</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0473045707699157</v>
+        <v>0.05080614144534862</v>
       </c>
       <c r="H94" t="n">
-        <v>6.294386381118408</v>
+        <v>14.16249088471042</v>
       </c>
       <c r="I94" t="inlineStr"/>
     </row>
@@ -3572,10 +3572,10 @@
         <v>0.04477146600756626</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05413196664887773</v>
+        <v>0.05077613901092094</v>
       </c>
       <c r="H95" t="n">
-        <v>20.90729090651079</v>
+        <v>13.41183020975883</v>
       </c>
       <c r="I95" t="inlineStr"/>
     </row>
@@ -3605,10 +3605,10 @@
         <v>-0.146963195107255</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1460857595323343</v>
+        <v>-0.1447942426306596</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5970444329822471</v>
+        <v>1.475847388192999</v>
       </c>
       <c r="I96" t="inlineStr"/>
     </row>
@@ -3638,10 +3638,10 @@
         <v>-0.150817549107657</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1518549531163734</v>
+        <v>-0.1556710160942424</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.6878536449202511</v>
+        <v>-3.218104932285355</v>
       </c>
       <c r="I97" t="inlineStr"/>
     </row>
@@ -3671,10 +3671,10 @@
         <v>0.1423101300395017</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1425338896749027</v>
+        <v>0.1416674043048509</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1572338071357883</v>
+        <v>-0.4516373742841714</v>
       </c>
       <c r="I98" t="inlineStr"/>
     </row>
@@ -3704,10 +3704,10 @@
         <v>0.1470608929146514</v>
       </c>
       <c r="G99" t="n">
-        <v>0.145384528380976</v>
+        <v>0.149112198266303</v>
       </c>
       <c r="H99" t="n">
-        <v>-1.139911842265431</v>
+        <v>1.394868010792033</v>
       </c>
       <c r="I99" t="inlineStr"/>
     </row>
@@ -3737,10 +3737,10 @@
         <v>0.02325180968686057</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02791835888623604</v>
+        <v>0.0292379720869379</v>
       </c>
       <c r="H100" t="n">
-        <v>20.06961721354748</v>
+        <v>25.74493117178774</v>
       </c>
       <c r="I100" t="inlineStr"/>
     </row>
@@ -3770,10 +3770,10 @@
         <v>0.0273166824388394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02922564078806671</v>
+        <v>0.02944196862147894</v>
       </c>
       <c r="H101" t="n">
-        <v>6.988251056845447</v>
+        <v>7.780176774386649</v>
       </c>
       <c r="I101" t="inlineStr"/>
     </row>
@@ -3803,10 +3803,10 @@
         <v>-0.007741144401112737</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.01228300209367856</v>
+        <v>-0.01122962264924017</v>
       </c>
       <c r="H102" t="n">
-        <v>-58.67165702157631</v>
+        <v>-45.06411542492332</v>
       </c>
       <c r="I102" t="inlineStr"/>
     </row>
@@ -3836,10 +3836,10 @@
         <v>-0.00766063640908223</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.008472062984396541</v>
+        <v>-0.01034288081925219</v>
       </c>
       <c r="H103" t="n">
-        <v>-10.59215621240432</v>
+        <v>-35.01333658114837</v>
       </c>
       <c r="I103" t="inlineStr"/>
     </row>
@@ -3869,10 +3869,10 @@
         <v>0.0727885622270989</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0798031919012559</v>
+        <v>0.07644574671540215</v>
       </c>
       <c r="H104" t="n">
-        <v>9.636994411665247</v>
+        <v>5.024394460345168</v>
       </c>
       <c r="I104" t="inlineStr"/>
     </row>
@@ -3902,10 +3902,10 @@
         <v>0.07478882140984003</v>
       </c>
       <c r="G105" t="n">
-        <v>0.08020498424796643</v>
+        <v>0.07360871899533601</v>
       </c>
       <c r="H105" t="n">
-        <v>7.241941691320456</v>
+        <v>-1.577912838119347</v>
       </c>
       <c r="I105" t="inlineStr"/>
     </row>
@@ -3935,10 +3935,10 @@
         <v>-0.3466071028434384</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.351427367694786</v>
+        <v>-0.3491969804674312</v>
       </c>
       <c r="H106" t="n">
-        <v>-1.390699963100561</v>
+        <v>-0.7472084682473058</v>
       </c>
       <c r="I106" t="inlineStr"/>
     </row>
@@ -3968,10 +3968,10 @@
         <v>-0.3762531854192955</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.359107043086945</v>
+        <v>-0.3398173972196389</v>
       </c>
       <c r="H107" t="n">
-        <v>4.557075659902479</v>
+        <v>9.683848432818623</v>
       </c>
       <c r="I107" t="inlineStr"/>
     </row>
@@ -4001,10 +4001,10 @@
         <v>0.2249197822222643</v>
       </c>
       <c r="G108" t="n">
-        <v>0.2232413475884253</v>
+        <v>0.2241625992943523</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.7462369993673553</v>
+        <v>-0.3366457678514685</v>
       </c>
       <c r="I108" t="inlineStr"/>
     </row>
@@ -4034,10 +4034,10 @@
         <v>0.2226452381003289</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2335436111576406</v>
+        <v>0.2326819388106433</v>
       </c>
       <c r="H109" t="n">
-        <v>4.894949988735286</v>
+        <v>4.5079341448981</v>
       </c>
       <c r="I109" t="inlineStr"/>
     </row>
@@ -4067,10 +4067,10 @@
         <v>0.05862760492876468</v>
       </c>
       <c r="G110" t="n">
-        <v>0.06110552034677862</v>
+        <v>0.05616366232971409</v>
       </c>
       <c r="H110" t="n">
-        <v>4.226533594583516</v>
+        <v>-4.202700420807566</v>
       </c>
       <c r="I110" t="inlineStr"/>
     </row>
@@ -4100,10 +4100,10 @@
         <v>0.05744215554139705</v>
       </c>
       <c r="G111" t="n">
-        <v>0.06823464446303559</v>
+        <v>0.06235773231995595</v>
       </c>
       <c r="H111" t="n">
-        <v>18.78844695140433</v>
+        <v>8.55743788203835</v>
       </c>
       <c r="I111" t="inlineStr"/>
     </row>
@@ -4133,10 +4133,10 @@
         <v>0.1283068976581735</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1334265803925066</v>
+        <v>0.1285059483107504</v>
       </c>
       <c r="H112" t="n">
-        <v>3.99018511691602</v>
+        <v>0.1551363614972693</v>
       </c>
       <c r="I112" t="inlineStr"/>
     </row>
@@ -4166,14 +4166,14 @@
         <v>0.1309363224202389</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1352609803166214</v>
+        <v>0.1377621962598237</v>
       </c>
       <c r="H113" t="n">
-        <v>3.302871057049057</v>
+        <v>5.213124756686859</v>
       </c>
       <c r="I113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>